--- a/data/trans_orig/P6504-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB5909C-09A8-4D61-9B9C-EFECF9E291C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC572704-617A-4DD8-A606-2825DA9AE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44332D0C-7B6E-4275-97CE-7E4C239F7326}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A7DD539-51EF-4928-89D6-BCB74B7034D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B5370-6342-4F98-AB7C-629D3CEC998D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE97FD3F-B37C-4287-9530-4499FA1CA623}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P6504-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC572704-617A-4DD8-A606-2825DA9AE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB514C4-DCFF-4FB4-8B99-6D987CFCF600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A7DD539-51EF-4928-89D6-BCB74B7034D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADAF913-D969-4343-96C5-41F53767BCB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="317">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>74,3%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,901 +101,889 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>82,62%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>64,34%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>16,05%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE97FD3F-B37C-4287-9530-4499FA1CA623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C268C8D5-B3BE-4626-82C1-60BA843609CE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1570,16 +1555,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -1588,13 +1573,13 @@
         <v>28024</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -1603,13 +1588,13 @@
         <v>22558</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -1618,19 +1603,19 @@
         <v>50582</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -1639,13 +1624,13 @@
         <v>27245</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1654,13 +1639,13 @@
         <v>1073</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -1669,19 +1654,19 @@
         <v>28319</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -1690,13 +1675,13 @@
         <v>6480</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1705,13 +1690,13 @@
         <v>1019</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1720,13 +1705,13 @@
         <v>7499</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,13 +1726,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1756,13 +1741,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1771,18 +1756,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1794,13 +1779,13 @@
         <v>133205</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>107</v>
@@ -1809,13 +1794,13 @@
         <v>109375</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>231</v>
@@ -1824,19 +1809,19 @@
         <v>242581</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>66</v>
@@ -1845,13 +1830,13 @@
         <v>72428</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1860,13 +1845,13 @@
         <v>12939</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1875,19 +1860,19 @@
         <v>85367</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>48</v>
@@ -1896,13 +1881,13 @@
         <v>51878</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -1911,13 +1896,13 @@
         <v>8517</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -1926,19 +1911,19 @@
         <v>60395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>12</v>
@@ -1947,13 +1932,13 @@
         <v>12970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1962,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1977,13 +1962,13 @@
         <v>12970</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1983,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -2013,13 +1998,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -2028,18 +2013,18 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2036,13 @@
         <v>92708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -2066,13 +2051,13 @@
         <v>85734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -2081,19 +2066,19 @@
         <v>178443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>30</v>
@@ -2102,13 +2087,13 @@
         <v>32917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2117,13 +2102,13 @@
         <v>6858</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -2132,19 +2117,19 @@
         <v>39775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>45</v>
@@ -2153,13 +2138,13 @@
         <v>45320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2168,13 +2153,13 @@
         <v>1974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2183,19 +2168,19 @@
         <v>47294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -2204,13 +2189,13 @@
         <v>3859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2219,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2234,13 +2219,13 @@
         <v>3859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2240,13 @@
         <v>174804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2270,13 +2255,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -2285,18 +2270,18 @@
         <v>269371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2293,13 @@
         <v>120727</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -2323,13 +2308,13 @@
         <v>108263</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>226</v>
@@ -2338,19 +2323,19 @@
         <v>228990</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>44</v>
@@ -2359,13 +2344,13 @@
         <v>43835</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -2374,13 +2359,13 @@
         <v>22933</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -2389,19 +2374,19 @@
         <v>66769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>45</v>
@@ -2410,13 +2395,13 @@
         <v>47870</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2425,13 +2410,13 @@
         <v>3000</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -2440,19 +2425,19 @@
         <v>50870</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -2461,13 +2446,13 @@
         <v>11112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2476,13 +2461,13 @@
         <v>1888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2491,13 +2476,13 @@
         <v>13000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2497,13 @@
         <v>223544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2527,13 +2512,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -2542,18 +2527,18 @@
         <v>359629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2565,13 +2550,13 @@
         <v>73860</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2580,13 +2565,13 @@
         <v>43589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -2595,19 +2580,19 @@
         <v>117449</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -2616,13 +2601,13 @@
         <v>18994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2631,13 +2616,13 @@
         <v>2990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2646,19 +2631,19 @@
         <v>21984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>15</v>
@@ -2667,13 +2652,13 @@
         <v>14737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2682,13 +2667,13 @@
         <v>2644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -2697,19 +2682,19 @@
         <v>17380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -2718,13 +2703,13 @@
         <v>4477</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2733,13 +2718,13 @@
         <v>1204</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2748,13 +2733,13 @@
         <v>5681</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2754,13 @@
         <v>112068</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2784,13 +2769,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2799,18 +2784,18 @@
         <v>162494</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2822,13 +2807,13 @@
         <v>71193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -2837,13 +2822,13 @@
         <v>64727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -2852,19 +2837,19 @@
         <v>135920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7">
         <v>43</v>
@@ -2873,13 +2858,13 @@
         <v>45143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2888,13 +2873,13 @@
         <v>13338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -2903,19 +2888,19 @@
         <v>58481</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>36</v>
@@ -2924,13 +2909,13 @@
         <v>38692</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2939,13 +2924,13 @@
         <v>4752</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -2954,19 +2939,19 @@
         <v>43444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2975,13 +2960,13 @@
         <v>989</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2990,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3005,13 +2990,13 @@
         <v>989</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3011,13 @@
         <v>156017</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3041,13 +3026,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
@@ -3056,18 +3041,18 @@
         <v>238834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3064,13 @@
         <v>219161</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>141</v>
@@ -3094,13 +3079,13 @@
         <v>150927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>347</v>
@@ -3109,19 +3094,19 @@
         <v>370088</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>57</v>
@@ -3130,13 +3115,13 @@
         <v>60355</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3145,13 +3130,13 @@
         <v>22535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -3160,19 +3145,19 @@
         <v>82890</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>44</v>
@@ -3181,13 +3166,13 @@
         <v>46783</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3196,13 +3181,13 @@
         <v>5222</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -3211,19 +3196,19 @@
         <v>52005</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>7</v>
@@ -3232,13 +3217,13 @@
         <v>6701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3247,13 +3232,13 @@
         <v>932</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -3262,13 +3247,13 @@
         <v>7633</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3268,13 @@
         <v>333000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3298,13 +3283,13 @@
         <v>179616</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>481</v>
@@ -3313,18 +3298,18 @@
         <v>512616</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3336,13 +3321,13 @@
         <v>246862</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H39" s="7">
         <v>164</v>
@@ -3351,13 +3336,13 @@
         <v>170885</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M39" s="7">
         <v>399</v>
@@ -3366,19 +3351,19 @@
         <v>417749</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="7">
         <v>101</v>
@@ -3387,13 +3372,13 @@
         <v>102295</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H40" s="7">
         <v>36</v>
@@ -3402,13 +3387,13 @@
         <v>38266</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M40" s="7">
         <v>137</v>
@@ -3417,19 +3402,19 @@
         <v>140562</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
         <v>68</v>
@@ -3438,13 +3423,13 @@
         <v>68162</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H41" s="7">
         <v>12</v>
@@ -3453,13 +3438,13 @@
         <v>13391</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M41" s="7">
         <v>80</v>
@@ -3468,19 +3453,19 @@
         <v>81553</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>49</v>
@@ -3489,13 +3474,13 @@
         <v>48279</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -3504,13 +3489,13 @@
         <v>15499</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M42" s="7">
         <v>64</v>
@@ -3519,13 +3504,13 @@
         <v>63778</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3525,13 @@
         <v>465598</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>227</v>
@@ -3555,13 +3540,13 @@
         <v>238042</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M43" s="7">
         <v>680</v>
@@ -3570,13 +3555,13 @@
         <v>703641</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3578,13 @@
         <v>1061366</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>788</v>
@@ -3608,13 +3593,13 @@
         <v>820836</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>1803</v>
@@ -3623,19 +3608,19 @@
         <v>1882201</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="7">
         <v>384</v>
@@ -3644,13 +3629,13 @@
         <v>403993</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H45" s="7">
         <v>133</v>
@@ -3659,13 +3644,13 @@
         <v>142417</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M45" s="7">
         <v>517</v>
@@ -3674,19 +3659,19 @@
         <v>546410</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7">
         <v>327</v>
@@ -3695,13 +3680,13 @@
         <v>340687</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H46" s="7">
         <v>39</v>
@@ -3710,13 +3695,13 @@
         <v>40573</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>366</v>
@@ -3725,19 +3710,19 @@
         <v>381260</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>94</v>
@@ -3746,13 +3731,13 @@
         <v>94866</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H47" s="7">
         <v>20</v>
@@ -3761,13 +3746,13 @@
         <v>20542</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M47" s="7">
         <v>114</v>
@@ -3776,13 +3761,13 @@
         <v>115408</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3782,13 @@
         <v>1900911</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7">
         <v>980</v>
@@ -3812,13 +3797,13 @@
         <v>1024368</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="7">
         <v>2800</v>
@@ -3827,18 +3812,18 @@
         <v>2925279</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB514C4-DCFF-4FB4-8B99-6D987CFCF600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E4393C-9333-4897-8113-3AAA97931BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADAF913-D969-4343-96C5-41F53767BCB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E38AFC6E-83CA-4683-B5FD-8B5C0DFE8596}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>74,3%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -101,889 +104,901 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1398,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C268C8D5-B3BE-4626-82C1-60BA843609CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB684B1-F3AA-4D7A-A2FC-2CC4C096E553}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,16 +1570,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -1573,13 +1588,13 @@
         <v>28024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -1588,13 +1603,13 @@
         <v>22558</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -1603,19 +1618,19 @@
         <v>50582</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -1624,13 +1639,13 @@
         <v>27245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1639,13 +1654,13 @@
         <v>1073</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -1654,19 +1669,19 @@
         <v>28319</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -1675,13 +1690,13 @@
         <v>6480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1690,13 +1705,13 @@
         <v>1019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1705,13 +1720,13 @@
         <v>7499</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,13 +1741,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1741,13 +1756,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1756,18 +1771,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1779,13 +1794,13 @@
         <v>133205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>107</v>
@@ -1794,13 +1809,13 @@
         <v>109375</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>231</v>
@@ -1809,19 +1824,19 @@
         <v>242581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>66</v>
@@ -1830,13 +1845,13 @@
         <v>72428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1845,13 +1860,13 @@
         <v>12939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1860,19 +1875,19 @@
         <v>85367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>48</v>
@@ -1881,13 +1896,13 @@
         <v>51878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -1896,13 +1911,13 @@
         <v>8517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -1911,19 +1926,19 @@
         <v>60395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>12</v>
@@ -1932,13 +1947,13 @@
         <v>12970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1947,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1962,13 +1977,13 @@
         <v>12970</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1998,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1998,13 +2013,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -2013,18 +2028,18 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2036,13 +2051,13 @@
         <v>92708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -2051,13 +2066,13 @@
         <v>85734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -2066,19 +2081,19 @@
         <v>178443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>30</v>
@@ -2087,13 +2102,13 @@
         <v>32917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2102,13 +2117,13 @@
         <v>6858</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -2117,19 +2132,19 @@
         <v>39775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>45</v>
@@ -2138,13 +2153,13 @@
         <v>45320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2153,13 +2168,13 @@
         <v>1974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2168,19 +2183,19 @@
         <v>47294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -2189,13 +2204,13 @@
         <v>3859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2204,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2219,13 +2234,13 @@
         <v>3859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2255,13 @@
         <v>174804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2255,13 +2270,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -2270,18 +2285,18 @@
         <v>269371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2293,13 +2308,13 @@
         <v>120727</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -2308,13 +2323,13 @@
         <v>108263</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>226</v>
@@ -2323,19 +2338,19 @@
         <v>228990</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>44</v>
@@ -2344,13 +2359,13 @@
         <v>43835</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -2359,13 +2374,13 @@
         <v>22933</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -2374,19 +2389,19 @@
         <v>66769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>45</v>
@@ -2395,13 +2410,13 @@
         <v>47870</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2410,13 +2425,13 @@
         <v>3000</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -2425,19 +2440,19 @@
         <v>50870</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -2446,13 +2461,13 @@
         <v>11112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2461,13 +2476,13 @@
         <v>1888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2476,13 +2491,13 @@
         <v>13000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2512,13 @@
         <v>223544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2512,13 +2527,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -2527,18 +2542,18 @@
         <v>359629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2550,13 +2565,13 @@
         <v>73860</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2565,13 +2580,13 @@
         <v>43589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -2580,19 +2595,19 @@
         <v>117449</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -2601,13 +2616,13 @@
         <v>18994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2616,13 +2631,13 @@
         <v>2990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2631,19 +2646,19 @@
         <v>21984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>15</v>
@@ -2652,13 +2667,13 @@
         <v>14737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2667,13 +2682,13 @@
         <v>2644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -2682,19 +2697,19 @@
         <v>17380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -2703,13 +2718,13 @@
         <v>4477</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2718,13 +2733,13 @@
         <v>1204</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2733,13 +2748,13 @@
         <v>5681</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2769,13 @@
         <v>112068</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2769,13 +2784,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2784,18 +2799,18 @@
         <v>162494</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2822,13 @@
         <v>71193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -2822,13 +2837,13 @@
         <v>64727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -2837,19 +2852,19 @@
         <v>135920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>43</v>
@@ -2858,13 +2873,13 @@
         <v>45143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2873,13 +2888,13 @@
         <v>13338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -2888,19 +2903,19 @@
         <v>58481</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>36</v>
@@ -2909,13 +2924,13 @@
         <v>38692</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2924,13 +2939,13 @@
         <v>4752</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -2939,19 +2954,19 @@
         <v>43444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2960,13 +2975,13 @@
         <v>989</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2975,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2990,13 +3005,13 @@
         <v>989</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3026,13 @@
         <v>156017</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3026,13 +3041,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
@@ -3041,18 +3056,18 @@
         <v>238834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3079,13 @@
         <v>219161</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>141</v>
@@ -3079,13 +3094,13 @@
         <v>150927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>347</v>
@@ -3094,19 +3109,19 @@
         <v>370088</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>57</v>
@@ -3115,13 +3130,13 @@
         <v>60355</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3130,13 +3145,13 @@
         <v>22535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -3145,19 +3160,19 @@
         <v>82890</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>44</v>
@@ -3166,13 +3181,13 @@
         <v>46783</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3181,13 +3196,13 @@
         <v>5222</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -3196,19 +3211,19 @@
         <v>52005</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>7</v>
@@ -3217,13 +3232,13 @@
         <v>6701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3232,13 +3247,13 @@
         <v>932</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -3247,13 +3262,13 @@
         <v>7633</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3283,13 @@
         <v>333000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3283,13 +3298,13 @@
         <v>179616</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>481</v>
@@ -3298,18 +3313,18 @@
         <v>512616</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3321,13 +3336,13 @@
         <v>246862</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H39" s="7">
         <v>164</v>
@@ -3336,13 +3351,13 @@
         <v>170885</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M39" s="7">
         <v>399</v>
@@ -3351,19 +3366,19 @@
         <v>417749</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="7">
         <v>101</v>
@@ -3372,13 +3387,13 @@
         <v>102295</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>36</v>
@@ -3387,13 +3402,13 @@
         <v>38266</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>137</v>
@@ -3402,19 +3417,19 @@
         <v>140562</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
         <v>68</v>
@@ -3423,13 +3438,13 @@
         <v>68162</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H41" s="7">
         <v>12</v>
@@ -3438,13 +3453,13 @@
         <v>13391</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M41" s="7">
         <v>80</v>
@@ -3453,19 +3468,19 @@
         <v>81553</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>49</v>
@@ -3474,13 +3489,13 @@
         <v>48279</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -3489,13 +3504,13 @@
         <v>15499</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M42" s="7">
         <v>64</v>
@@ -3504,13 +3519,13 @@
         <v>63778</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3540,13 @@
         <v>465598</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>227</v>
@@ -3540,13 +3555,13 @@
         <v>238042</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>680</v>
@@ -3555,13 +3570,13 @@
         <v>703641</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3593,13 @@
         <v>1061366</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>788</v>
@@ -3593,13 +3608,13 @@
         <v>820836</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>1803</v>
@@ -3608,19 +3623,19 @@
         <v>1882201</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="7">
         <v>384</v>
@@ -3629,13 +3644,13 @@
         <v>403993</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>133</v>
@@ -3644,13 +3659,13 @@
         <v>142417</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M45" s="7">
         <v>517</v>
@@ -3659,19 +3674,19 @@
         <v>546410</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7">
         <v>327</v>
@@ -3680,13 +3695,13 @@
         <v>340687</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H46" s="7">
         <v>39</v>
@@ -3695,13 +3710,13 @@
         <v>40573</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>366</v>
@@ -3710,19 +3725,19 @@
         <v>381260</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>94</v>
@@ -3731,13 +3746,13 @@
         <v>94866</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H47" s="7">
         <v>20</v>
@@ -3746,13 +3761,13 @@
         <v>20542</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>114</v>
@@ -3761,13 +3776,13 @@
         <v>115408</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3797,13 @@
         <v>1900911</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>980</v>
@@ -3797,13 +3812,13 @@
         <v>1024368</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>2800</v>
@@ -3812,18 +3827,18 @@
         <v>2925279</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E4393C-9333-4897-8113-3AAA97931BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB4F3C8-EEA0-4042-8FD0-FC58D705146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E38AFC6E-83CA-4683-B5FD-8B5C0DFE8596}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2CF6DC34-ADF2-4EFE-8A9C-AE734F5B0784}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB684B1-F3AA-4D7A-A2FC-2CC4C096E553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94160C3A-63D8-441C-8718-85308151CCB7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
